--- a/Cash.xlsx
+++ b/Cash.xlsx
@@ -343,7 +343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -384,7 +384,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -425,10 +425,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,7 +552,7 @@
   <dimension ref="B2:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -577,11 +573,11 @@
       </c>
       <c r="C2" s="3" t="n">
         <f aca="false">H4*H5</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">C2*$H$2</f>
-        <v>12400000</v>
+        <v>123500000</v>
       </c>
       <c r="E2" s="5" t="n">
         <f aca="false">D2/D2</f>
@@ -591,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="n">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,15 +596,15 @@
       </c>
       <c r="C3" s="3" t="n">
         <f aca="false">C8+C15+C18</f>
-        <v>5312.30890582258</v>
+        <v>51211.8796822105</v>
       </c>
       <c r="D3" s="9" t="n">
         <f aca="false">C3*$H$2</f>
-        <v>6587263.04322</v>
+        <v>63246671.40753</v>
       </c>
       <c r="E3" s="10" t="n">
         <f aca="false">D3/$D$2</f>
-        <v>0.531230890582258</v>
+        <v>0.512118796822105</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -620,21 +616,21 @@
       </c>
       <c r="C4" s="3" t="n">
         <f aca="false">C2-C8-C15-C18</f>
-        <v>4687.69109417742</v>
+        <v>48788.1203177895</v>
       </c>
       <c r="D4" s="13" t="n">
         <f aca="false">C4*$H$2</f>
-        <v>5812736.95678</v>
+        <v>60253328.59247</v>
       </c>
       <c r="E4" s="14" t="n">
         <f aca="false">D4/D2</f>
-        <v>0.468769109417742</v>
+        <v>0.487881203177895</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="17" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,94 +669,94 @@
       </c>
       <c r="C8" s="19" t="n">
         <f aca="false">C9+C10+C11+C12+C13</f>
-        <v>1237.14161290323</v>
+        <v>8798.72825910931</v>
       </c>
       <c r="D8" s="20" t="n">
         <f aca="false">C8*$H$2</f>
-        <v>1534055.6</v>
-      </c>
-      <c r="E8" s="21" t="n">
+        <v>10866429.4</v>
+      </c>
+      <c r="E8" s="10" t="n">
         <f aca="false">D8/$D$2</f>
-        <v>0.123714161290323</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+        <v>0.0879872825910931</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="n">
+      <c r="C9" s="23" t="n">
         <f aca="false">H4*H5*Porcentajes!C2</f>
-        <v>440</v>
+        <v>4400</v>
       </c>
       <c r="D9" s="20" t="n">
         <f aca="false">C9*$H$2</f>
-        <v>545600</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+        <v>5434000</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="24" t="n">
+      <c r="C10" s="23" t="n">
         <f aca="false">IF(H5&lt;H7,0,H4*H5*Porcentajes!C3)</f>
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="D10" s="20" t="n">
         <f aca="false">C10*$H$2</f>
-        <v>496000</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+        <v>4940000</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="24" t="n">
+      <c r="C11" s="23" t="n">
         <v>3.99</v>
       </c>
       <c r="D11" s="20" t="n">
         <f aca="false">C11*$H$2</f>
-        <v>4947.6</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+        <v>4927.65</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="24" t="n">
+      <c r="C12" s="23" t="n">
         <f aca="false">IF(H5&lt;H7,0,D12/H2)</f>
-        <v>391.901612903226</v>
+        <v>393.488259109312</v>
       </c>
       <c r="D12" s="20" t="n">
         <f aca="false">IF(H5&lt;H7,0,VLOOKUP(D2, Monotributo!B3:D15, 3, 1))</f>
@@ -768,48 +764,48 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="24" t="n">
+      <c r="C13" s="23" t="n">
         <f aca="false">15/12</f>
         <v>1.25</v>
       </c>
       <c r="D13" s="20" t="n">
         <f aca="false">C13*$H$2</f>
-        <v>1550</v>
+        <v>1543.75</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="25"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="18" t="s">
@@ -817,55 +813,55 @@
       </c>
       <c r="C15" s="19" t="n">
         <f aca="false">IF(H5&lt;1500,0,C16)</f>
-        <v>1551.02593451613</v>
+        <v>16142.6250981377</v>
       </c>
       <c r="D15" s="20" t="n">
         <f aca="false">C15*$H$2</f>
-        <v>1923272.1588</v>
-      </c>
-      <c r="E15" s="21" t="n">
+        <v>19936141.9962</v>
+      </c>
+      <c r="E15" s="10" t="n">
         <f aca="false">D15/$D$2</f>
-        <v>0.155102593451613</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
+        <v>0.161426250981377</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="24" t="n">
+      <c r="C16" s="23" t="n">
         <f aca="false">(C2-C8)*Porcentajes!C4</f>
-        <v>1551.02593451613</v>
+        <v>16142.6250981377</v>
       </c>
       <c r="D16" s="20" t="n">
         <f aca="false">IF(C15=0,0,C16*$H$2)</f>
-        <v>1923272.1588</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
+        <v>19936141.9962</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="18" t="s">
@@ -873,88 +869,88 @@
       </c>
       <c r="C18" s="19" t="n">
         <f aca="false">IF(H5&lt;1500,0,C19)</f>
-        <v>2524.14135840323</v>
+        <v>26270.5263249636</v>
       </c>
       <c r="D18" s="20" t="n">
         <f aca="false">C18*$H$2</f>
-        <v>3129935.28442</v>
-      </c>
-      <c r="E18" s="21" t="n">
+        <v>32444100.01133</v>
+      </c>
+      <c r="E18" s="10" t="n">
         <f aca="false">D18/$D$2</f>
-        <v>0.252414135840323</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
+        <v>0.262705263249636</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="26" t="n">
+      <c r="C19" s="25" t="n">
         <f aca="false">(C2-C8-C15)*Porcentajes!C5</f>
-        <v>2524.14135840323</v>
+        <v>26270.5263249636</v>
       </c>
       <c r="D19" s="20" t="n">
         <f aca="false">IF(C18=0,0,C19*$H$2)</f>
-        <v>3129935.28442</v>
+        <v>32444100.01133</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N21" s="22"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N22" s="22"/>
+      <c r="N22" s="21"/>
     </row>
     <row r="23" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N23" s="22"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N24" s="22"/>
+      <c r="N24" s="21"/>
     </row>
     <row r="25" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
     </row>
     <row r="27" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
     </row>
     <row r="29" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="11"/>
@@ -968,8 +964,8 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="11"/>
@@ -983,8 +979,8 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="11"/>
@@ -998,8 +994,8 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="11"/>
@@ -1013,8 +1009,8 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="11"/>
@@ -1028,8 +1024,8 @@
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="11"/>
@@ -1043,8 +1039,8 @@
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1078,34 +1074,34 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="28" t="n">
+      <c r="C2" s="27" t="n">
         <v>0.044</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="28" t="n">
+      <c r="C3" s="27" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="28" t="n">
+      <c r="C4" s="27" t="n">
         <v>0.177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="28" t="n">
+      <c r="C5" s="27" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1138,152 +1134,152 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="31" t="n">
+      <c r="B4" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="31" t="n">
+      <c r="C4" s="30" t="n">
         <v>537500</v>
       </c>
-      <c r="D4" s="32" t="n">
+      <c r="D4" s="31" t="n">
         <v>26600</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="31" t="n">
+      <c r="B5" s="30" t="n">
         <v>537500</v>
       </c>
-      <c r="C5" s="31" t="n">
+      <c r="C5" s="30" t="n">
         <v>787500</v>
       </c>
-      <c r="D5" s="32" t="n">
+      <c r="D5" s="31" t="n">
         <v>30280</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="31" t="n">
+      <c r="B6" s="30" t="n">
         <v>787500</v>
       </c>
-      <c r="C6" s="31" t="n">
+      <c r="C6" s="30" t="n">
         <v>1104166.66666667</v>
       </c>
-      <c r="D6" s="32" t="n">
+      <c r="D6" s="31" t="n">
         <v>35458</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="31" t="n">
+      <c r="B7" s="30" t="n">
         <v>1104166.66666667</v>
       </c>
-      <c r="C7" s="31" t="n">
+      <c r="C7" s="30" t="n">
         <v>1370833.33333333</v>
       </c>
-      <c r="D7" s="32" t="n">
+      <c r="D7" s="31" t="n">
         <v>45443.8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="31" t="n">
+      <c r="B8" s="30" t="n">
         <v>1370833.33333333</v>
       </c>
-      <c r="C8" s="31" t="n">
+      <c r="C8" s="30" t="n">
         <v>1612500</v>
       </c>
-      <c r="D8" s="32" t="n">
+      <c r="D8" s="31" t="n">
         <v>64348.18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="31" t="n">
+      <c r="B9" s="30" t="n">
         <v>1612500</v>
       </c>
-      <c r="C9" s="31" t="n">
+      <c r="C9" s="30" t="n">
         <v>2020833.33333333</v>
       </c>
-      <c r="D9" s="32" t="n">
+      <c r="D9" s="31" t="n">
         <v>80983</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="31" t="n">
+      <c r="B10" s="30" t="n">
         <v>2020833.33333333</v>
       </c>
-      <c r="C10" s="31" t="n">
+      <c r="C10" s="30" t="n">
         <v>2416666.66666667</v>
       </c>
-      <c r="D10" s="32" t="n">
+      <c r="D10" s="31" t="n">
         <v>123696.2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="31" t="n">
+      <c r="B11" s="30" t="n">
         <v>2416666.66666667</v>
       </c>
-      <c r="C11" s="31" t="n">
+      <c r="C11" s="30" t="n">
         <v>3666666.66666667</v>
       </c>
-      <c r="D11" s="32" t="n">
+      <c r="D11" s="31" t="n">
         <v>280734.68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="31" t="n">
+      <c r="B12" s="30" t="n">
         <v>3666666.66666667</v>
       </c>
-      <c r="C12" s="31" t="n">
+      <c r="C12" s="30" t="n">
         <v>4104166.66666667</v>
       </c>
-      <c r="D12" s="32" t="n">
+      <c r="D12" s="31" t="n">
         <v>517608.55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="31" t="n">
+      <c r="B13" s="30" t="n">
         <v>4104166.66666667</v>
       </c>
-      <c r="C13" s="31" t="n">
+      <c r="C13" s="30" t="n">
         <v>4700000</v>
       </c>
-      <c r="D13" s="32" t="n">
+      <c r="D13" s="31" t="n">
         <v>626931.97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="31" t="n">
+      <c r="B14" s="30" t="n">
         <v>4700000</v>
       </c>
-      <c r="C14" s="31" t="n">
+      <c r="C14" s="30" t="n">
         <v>5666666.66666667</v>
       </c>
-      <c r="D14" s="32" t="n">
+      <c r="D14" s="31" t="n">
         <v>867084.76</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="31" t="n">
+      <c r="B15" s="30" t="n">
         <v>5666666.66666667</v>
       </c>
-      <c r="C15" s="31" t="n">
+      <c r="C15" s="30" t="n">
         <v>1E+020</v>
       </c>
-      <c r="D15" s="32" t="n">
+      <c r="D15" s="31" t="n">
         <v>485958</v>
       </c>
     </row>

--- a/Cash.xlsx
+++ b/Cash.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="B2:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -573,11 +573,11 @@
       </c>
       <c r="C2" s="3" t="n">
         <f aca="false">H4*H5</f>
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">C2*$H$2</f>
-        <v>123500000</v>
+        <v>24700000</v>
       </c>
       <c r="E2" s="5" t="n">
         <f aca="false">D2/D2</f>
@@ -596,15 +596,15 @@
       </c>
       <c r="C3" s="3" t="n">
         <f aca="false">C8+C15+C18</f>
-        <v>51211.8796822105</v>
+        <v>10416.2253822105</v>
       </c>
       <c r="D3" s="9" t="n">
         <f aca="false">C3*$H$2</f>
-        <v>63246671.40753</v>
+        <v>12864038.34703</v>
       </c>
       <c r="E3" s="10" t="n">
         <f aca="false">D3/$D$2</f>
-        <v>0.512118796822105</v>
+        <v>0.520811269110526</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -616,21 +616,21 @@
       </c>
       <c r="C4" s="3" t="n">
         <f aca="false">C2-C8-C15-C18</f>
-        <v>48788.1203177895</v>
+        <v>9583.77461778948</v>
       </c>
       <c r="D4" s="13" t="n">
         <f aca="false">C4*$H$2</f>
-        <v>60253328.59247</v>
+        <v>11835961.65297</v>
       </c>
       <c r="E4" s="14" t="n">
         <f aca="false">D4/D2</f>
-        <v>0.487881203177895</v>
+        <v>0.479188730889474</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="17" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,15 +669,15 @@
       </c>
       <c r="C8" s="19" t="n">
         <f aca="false">C9+C10+C11+C12+C13</f>
-        <v>8798.72825910931</v>
+        <v>2084.72825910931</v>
       </c>
       <c r="D8" s="20" t="n">
         <f aca="false">C8*$H$2</f>
-        <v>10866429.4</v>
+        <v>2574639.4</v>
       </c>
       <c r="E8" s="10" t="n">
         <f aca="false">D8/$D$2</f>
-        <v>0.0879872825910931</v>
+        <v>0.104236412955466</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -694,11 +694,11 @@
       </c>
       <c r="C9" s="23" t="n">
         <f aca="false">H4*H5*Porcentajes!C2</f>
-        <v>4400</v>
+        <v>880</v>
       </c>
       <c r="D9" s="20" t="n">
         <f aca="false">C9*$H$2</f>
-        <v>5434000</v>
+        <v>1086800</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -715,11 +715,11 @@
       </c>
       <c r="C10" s="23" t="n">
         <f aca="false">IF(H5&lt;H7,0,H4*H5*Porcentajes!C3)</f>
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="D10" s="20" t="n">
         <f aca="false">C10*$H$2</f>
-        <v>4940000</v>
+        <v>988000</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -735,11 +735,12 @@
         <v>10</v>
       </c>
       <c r="C11" s="23" t="n">
-        <v>3.99</v>
+        <f aca="false">IF(H5&gt;500,9.99,3.99)</f>
+        <v>9.99</v>
       </c>
       <c r="D11" s="20" t="n">
         <f aca="false">C11*$H$2</f>
-        <v>4927.65</v>
+        <v>12337.65</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -812,16 +813,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="19" t="n">
-        <f aca="false">IF(H5&lt;1500,0,C16)</f>
-        <v>16142.6250981377</v>
+        <f aca="false">IF((H4*H5)&lt;4000,0,C16)</f>
+        <v>3171.00309813765</v>
       </c>
       <c r="D15" s="20" t="n">
         <f aca="false">C15*$H$2</f>
-        <v>19936141.9962</v>
+        <v>3916188.8262</v>
       </c>
       <c r="E15" s="10" t="n">
         <f aca="false">D15/$D$2</f>
-        <v>0.161426250981377</v>
+        <v>0.158550154906883</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -838,11 +839,11 @@
       </c>
       <c r="C16" s="23" t="n">
         <f aca="false">(C2-C8)*Porcentajes!C4</f>
-        <v>16142.6250981377</v>
+        <v>3171.00309813765</v>
       </c>
       <c r="D16" s="20" t="n">
         <f aca="false">IF(C15=0,0,C16*$H$2)</f>
-        <v>19936141.9962</v>
+        <v>3916188.8262</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -868,16 +869,16 @@
         <v>15</v>
       </c>
       <c r="C18" s="19" t="n">
-        <f aca="false">IF(H5&lt;1500,0,C19)</f>
-        <v>26270.5263249636</v>
+        <f aca="false">IF((H4*H5)&lt;4000,0,C19)</f>
+        <v>5160.49402496356</v>
       </c>
       <c r="D18" s="20" t="n">
         <f aca="false">C18*$H$2</f>
-        <v>32444100.01133</v>
+        <v>6373210.12083</v>
       </c>
       <c r="E18" s="10" t="n">
         <f aca="false">D18/$D$2</f>
-        <v>0.262705263249636</v>
+        <v>0.258024701248178</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -894,11 +895,11 @@
       </c>
       <c r="C19" s="25" t="n">
         <f aca="false">(C2-C8-C15)*Porcentajes!C5</f>
-        <v>26270.5263249636</v>
+        <v>5160.49402496356</v>
       </c>
       <c r="D19" s="20" t="n">
         <f aca="false">IF(C18=0,0,C19*$H$2)</f>
-        <v>32444100.01133</v>
+        <v>6373210.12083</v>
       </c>
       <c r="E19" s="1"/>
       <c r="G19" s="21"/>
